--- a/biology/Botanique/Piperales/Piperales.xlsx
+++ b/biology/Botanique/Piperales/Piperales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,26 +490,28 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'ordre des pipérales (Piperales) est un ordre de plantes angiospermes primitives. En classification de Cronquist (1981) il comprend trois familles :
 Chloranthacées
 Pipéracées (famille du poivrier)
 Saururacées (famille de la queue de lézard)
-La classification phylogénétique APG (1998)[2] a modifié la composition de cet ordre :
+La classification phylogénétique APG (1998) a modifié la composition de cet ordre :
 ordre Piperales
 famille Aristolochiaceae
 famille Lactoridaceae
 famille Piperaceae
 famille Saururaceae
-En classification phylogénétique APG II (2003)[3] et classification phylogénétique APG III (2009)[4] sa circonscription est étendue :
+En classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009) sa circonscription est étendue :
 ordre Piperales
 famille Aristolochiaceae
 famille Hydnoraceae
 famille Lactoridaceae
 famille Piperaceae
 famille Saururaceae
-La classification phylogénétique APG IV (2016)[5] a réorganisé sa composition :
+La classification phylogénétique APG IV (2016) a réorganisé sa composition :
 ordre Piperales
 famille Aristolochiaceae (incluant Asaraceae, Hydnoraceae et Lactoridaceae)
 famille Piperaceae
